--- a/2024/Quân khí/6. SO NVQK CDBB (S)/So nghiep vu CD BB.xlsx
+++ b/2024/Quân khí/6. SO NVQK CDBB (S)/So nghiep vu CD BB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUNG-pct\Desktop\Thư mục mới\Thư mục mới\6. SO NVQK CDBB (S)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2024\Quân khí\6. SO NVQK CDBB (S)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4ECF7-9A3C-4842-BA4D-66CDE8EB07BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6463A5E1-DD01-47BC-BC63-84C7181F4D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="245">
   <si>
     <t>Nhận xét ưu khuyết điểm</t>
   </si>
@@ -2402,13 +2402,9 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right/>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2434,7 +2430,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -2815,6 +2811,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2848,8 +2859,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2869,53 +2922,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2926,13 +2940,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2944,22 +2958,40 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2989,33 +3021,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3029,6 +3034,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3037,20 +3054,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3063,15 +3068,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3088,6 +3084,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3125,21 +3130,77 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="??_kc-elec system check list" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -44867,7 +44928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -44909,7 +44970,7 @@
       <c r="C4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="188" t="s">
+      <c r="D4" s="193" t="s">
         <v>205</v>
       </c>
       <c r="E4" s="67" t="s">
@@ -44940,7 +45001,7 @@
       <c r="C5" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="189"/>
+      <c r="D5" s="194"/>
       <c r="E5" s="65" t="s">
         <v>130</v>
       </c>
@@ -44969,7 +45030,7 @@
       <c r="C6" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="190"/>
+      <c r="D6" s="195"/>
       <c r="E6" s="69" t="s">
         <v>158</v>
       </c>
@@ -45516,23 +45577,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21.75" customHeight="1">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="196" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="258"/>
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
       <c r="AA1" s="17"/>
@@ -45583,7 +45644,7 @@
         <v>61</v>
       </c>
       <c r="N4" s="120"/>
-      <c r="O4" s="256" t="s">
+      <c r="O4" s="259" t="s">
         <v>207</v>
       </c>
     </row>
@@ -45604,7 +45665,7 @@
       <c r="L5" s="121"/>
       <c r="M5" s="121"/>
       <c r="N5" s="121"/>
-      <c r="O5" s="257"/>
+      <c r="O5" s="260"/>
     </row>
     <row r="6" spans="1:28" ht="19.5" customHeight="1">
       <c r="A6" s="55" t="s">
@@ -45623,7 +45684,7 @@
       <c r="L6" s="121"/>
       <c r="M6" s="121"/>
       <c r="N6" s="121"/>
-      <c r="O6" s="257"/>
+      <c r="O6" s="260"/>
     </row>
     <row r="7" spans="1:28" ht="19.5" customHeight="1">
       <c r="A7" s="55" t="s">
@@ -45642,7 +45703,7 @@
       <c r="L7" s="121"/>
       <c r="M7" s="121"/>
       <c r="N7" s="121"/>
-      <c r="O7" s="257"/>
+      <c r="O7" s="260"/>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1">
       <c r="A8" s="55" t="s">
@@ -45661,7 +45722,7 @@
       <c r="L8" s="121"/>
       <c r="M8" s="121"/>
       <c r="N8" s="121"/>
-      <c r="O8" s="258"/>
+      <c r="O8" s="261"/>
       <c r="P8" s="122"/>
       <c r="Q8" s="122"/>
       <c r="R8" s="122"/>
@@ -45986,10 +46047,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:S4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -46010,7 +46074,7 @@
     <col min="14" max="14" width="4.33203125" style="70" customWidth="1"/>
     <col min="15" max="15" width="5.109375" style="70" customWidth="1"/>
     <col min="16" max="17" width="5.5546875" style="70" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" style="70" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" style="70" customWidth="1"/>
     <col min="19" max="19" width="6" style="70" customWidth="1"/>
     <col min="20" max="20" width="13.5546875" style="70" customWidth="1"/>
     <col min="21" max="16384" width="9.109375" style="70"/>
@@ -46054,52 +46118,52 @@
       <c r="T3" s="25"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" thickTop="1">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="245"/>
-      <c r="M4" s="243" t="s">
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="257"/>
+      <c r="M4" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="244"/>
-      <c r="O4" s="244"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="264" t="s">
+      <c r="N4" s="256"/>
+      <c r="O4" s="256"/>
+      <c r="P4" s="257"/>
+      <c r="Q4" s="269" t="s">
         <v>244</v>
       </c>
-      <c r="R4" s="244"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="225" t="s">
+      <c r="R4" s="256"/>
+      <c r="S4" s="257"/>
+      <c r="T4" s="237" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="232"/>
-      <c r="B5" s="235"/>
-      <c r="C5" s="262" t="s">
+      <c r="A5" s="226"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="265" t="s">
+      <c r="D5" s="262" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="265" t="s">
+      <c r="E5" s="262" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="259" t="s">
+      <c r="F5" s="266" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="50" t="s">
@@ -46110,106 +46174,106 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
       <c r="L5" s="50"/>
-      <c r="M5" s="262" t="s">
+      <c r="M5" s="265" t="s">
         <v>48</v>
       </c>
       <c r="N5" s="263" t="s">
         <v>205</v>
       </c>
-      <c r="O5" s="259" t="s">
+      <c r="O5" s="266" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="259" t="s">
+      <c r="P5" s="266" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="262" t="s">
+      <c r="Q5" s="265" t="s">
         <v>50</v>
       </c>
       <c r="R5" s="263" t="s">
         <v>205</v>
       </c>
-      <c r="S5" s="259" t="s">
+      <c r="S5" s="266" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="226"/>
+      <c r="T5" s="238"/>
     </row>
     <row r="6" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A6" s="232"/>
-      <c r="B6" s="235"/>
-      <c r="C6" s="235"/>
+      <c r="A6" s="226"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
       <c r="D6" s="263"/>
       <c r="E6" s="263"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="265" t="s">
+      <c r="F6" s="267"/>
+      <c r="G6" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="259" t="s">
+      <c r="H6" s="266" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="259" t="s">
+      <c r="I6" s="266" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="259" t="s">
+      <c r="J6" s="266" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="259" t="s">
+      <c r="K6" s="266" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="259" t="s">
+      <c r="L6" s="266" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="235"/>
+      <c r="M6" s="232"/>
       <c r="N6" s="263"/>
-      <c r="O6" s="260"/>
-      <c r="P6" s="260"/>
-      <c r="Q6" s="235"/>
+      <c r="O6" s="267"/>
+      <c r="P6" s="267"/>
+      <c r="Q6" s="232"/>
       <c r="R6" s="263"/>
-      <c r="S6" s="260"/>
-      <c r="T6" s="226"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="238"/>
     </row>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A7" s="232"/>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
+      <c r="A7" s="226"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="263"/>
       <c r="E7" s="263"/>
-      <c r="F7" s="260"/>
+      <c r="F7" s="267"/>
       <c r="G7" s="263"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="260"/>
-      <c r="L7" s="260"/>
-      <c r="M7" s="235"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="267"/>
+      <c r="M7" s="232"/>
       <c r="N7" s="263"/>
-      <c r="O7" s="260"/>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="235"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="267"/>
+      <c r="Q7" s="232"/>
       <c r="R7" s="263"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="226"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="238"/>
     </row>
     <row r="8" spans="1:20" ht="45" customHeight="1">
-      <c r="A8" s="233"/>
-      <c r="B8" s="236"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="261"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="261"/>
-      <c r="I8" s="261"/>
-      <c r="J8" s="261"/>
-      <c r="K8" s="261"/>
-      <c r="L8" s="261"/>
-      <c r="M8" s="236"/>
+      <c r="A8" s="227"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="268"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="268"/>
+      <c r="K8" s="268"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="233"/>
       <c r="N8" s="263"/>
-      <c r="O8" s="261"/>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="236"/>
+      <c r="O8" s="268"/>
+      <c r="P8" s="268"/>
+      <c r="Q8" s="233"/>
       <c r="R8" s="263"/>
-      <c r="S8" s="261"/>
-      <c r="T8" s="227"/>
+      <c r="S8" s="268"/>
+      <c r="T8" s="239"/>
     </row>
     <row r="9" spans="1:20" ht="21.75" customHeight="1">
       <c r="A9" s="83"/>
@@ -46766,6 +46830,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="T4:T8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="S5:S8"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="M4:P4"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="E5:E8"/>
@@ -46776,33 +46849,24 @@
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="G6:G8"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="R5:R8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="S5:S8"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="M4:P4"/>
     <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -46827,9 +46891,7 @@
       <c r="F1" s="117"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
-      <c r="R1" s="17" t="s">
-        <v>199</v>
-      </c>
+      <c r="R1" s="17"/>
       <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
@@ -46837,23 +46899,23 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="298" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A3" s="294" t="s">
+    <row r="3" spans="1:19" s="192" customFormat="1" ht="19.5" customHeight="1" thickTop="1">
+      <c r="A3" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="296" t="s">
+      <c r="C3" s="190" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="295" t="s">
+      <c r="D3" s="189" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="295" t="s">
+      <c r="E3" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="297" t="s">
+      <c r="F3" s="191" t="s">
         <v>36</v>
       </c>
     </row>
@@ -47044,6 +47106,254 @@
       <c r="F26" s="142"/>
     </row>
     <row r="27" spans="1:6" ht="16.2" thickTop="1"/>
+    <row r="28" spans="1:6">
+      <c r="A28" s="321"/>
+      <c r="B28" s="321"/>
+      <c r="C28" s="321"/>
+      <c r="D28" s="321"/>
+      <c r="E28" s="321"/>
+      <c r="F28" s="321"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="321"/>
+      <c r="B29" s="321"/>
+      <c r="C29" s="321"/>
+      <c r="D29" s="321"/>
+      <c r="E29" s="321"/>
+      <c r="F29" s="321"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="321"/>
+      <c r="B30" s="321"/>
+      <c r="C30" s="321"/>
+      <c r="D30" s="321"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="321"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="321"/>
+      <c r="B31" s="321"/>
+      <c r="C31" s="321"/>
+      <c r="D31" s="321"/>
+      <c r="E31" s="321"/>
+      <c r="F31" s="321"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="321"/>
+      <c r="B32" s="321"/>
+      <c r="C32" s="321"/>
+      <c r="D32" s="321"/>
+      <c r="E32" s="321"/>
+      <c r="F32" s="321"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="321"/>
+      <c r="B33" s="321"/>
+      <c r="C33" s="321"/>
+      <c r="D33" s="321"/>
+      <c r="E33" s="321"/>
+      <c r="F33" s="321"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="321"/>
+      <c r="B34" s="321"/>
+      <c r="C34" s="321"/>
+      <c r="D34" s="321"/>
+      <c r="E34" s="321"/>
+      <c r="F34" s="321"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="321"/>
+      <c r="B35" s="321"/>
+      <c r="C35" s="321"/>
+      <c r="D35" s="321"/>
+      <c r="E35" s="321"/>
+      <c r="F35" s="321"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="321"/>
+      <c r="B36" s="321"/>
+      <c r="C36" s="321"/>
+      <c r="D36" s="321"/>
+      <c r="E36" s="321"/>
+      <c r="F36" s="321"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="321"/>
+      <c r="B37" s="321"/>
+      <c r="C37" s="321"/>
+      <c r="D37" s="321"/>
+      <c r="E37" s="321"/>
+      <c r="F37" s="321"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="321"/>
+      <c r="B38" s="321"/>
+      <c r="C38" s="321"/>
+      <c r="D38" s="321"/>
+      <c r="E38" s="321"/>
+      <c r="F38" s="321"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="321"/>
+      <c r="B39" s="321"/>
+      <c r="C39" s="321"/>
+      <c r="D39" s="321"/>
+      <c r="E39" s="321"/>
+      <c r="F39" s="321"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="321"/>
+      <c r="B40" s="321"/>
+      <c r="C40" s="321"/>
+      <c r="D40" s="321"/>
+      <c r="E40" s="321"/>
+      <c r="F40" s="321"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="321"/>
+      <c r="B41" s="321"/>
+      <c r="C41" s="321"/>
+      <c r="D41" s="321"/>
+      <c r="E41" s="321"/>
+      <c r="F41" s="321"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="321"/>
+      <c r="B42" s="321"/>
+      <c r="C42" s="321"/>
+      <c r="D42" s="321"/>
+      <c r="E42" s="321"/>
+      <c r="F42" s="321"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="321"/>
+      <c r="B43" s="321"/>
+      <c r="C43" s="321"/>
+      <c r="D43" s="321"/>
+      <c r="E43" s="321"/>
+      <c r="F43" s="321"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="321"/>
+      <c r="B44" s="321"/>
+      <c r="C44" s="321"/>
+      <c r="D44" s="321"/>
+      <c r="E44" s="321"/>
+      <c r="F44" s="321"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="321"/>
+      <c r="B45" s="321"/>
+      <c r="C45" s="321"/>
+      <c r="D45" s="321"/>
+      <c r="E45" s="321"/>
+      <c r="F45" s="321"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="321"/>
+      <c r="B46" s="321"/>
+      <c r="C46" s="321"/>
+      <c r="D46" s="321"/>
+      <c r="E46" s="321"/>
+      <c r="F46" s="321"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="321"/>
+      <c r="B47" s="321"/>
+      <c r="C47" s="321"/>
+      <c r="D47" s="321"/>
+      <c r="E47" s="321"/>
+      <c r="F47" s="321"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="321"/>
+      <c r="B48" s="321"/>
+      <c r="C48" s="321"/>
+      <c r="D48" s="321"/>
+      <c r="E48" s="321"/>
+      <c r="F48" s="321"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="321"/>
+      <c r="B49" s="321"/>
+      <c r="C49" s="321"/>
+      <c r="D49" s="321"/>
+      <c r="E49" s="321"/>
+      <c r="F49" s="321"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="321"/>
+      <c r="B50" s="321"/>
+      <c r="C50" s="321"/>
+      <c r="D50" s="321"/>
+      <c r="E50" s="321"/>
+      <c r="F50" s="321"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="321"/>
+      <c r="B51" s="321"/>
+      <c r="C51" s="321"/>
+      <c r="D51" s="321"/>
+      <c r="E51" s="321"/>
+      <c r="F51" s="321"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="321"/>
+      <c r="B52" s="321"/>
+      <c r="C52" s="321"/>
+      <c r="D52" s="321"/>
+      <c r="E52" s="321"/>
+      <c r="F52" s="321"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="321"/>
+      <c r="B53" s="321"/>
+      <c r="C53" s="321"/>
+      <c r="D53" s="321"/>
+      <c r="E53" s="321"/>
+      <c r="F53" s="321"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="321"/>
+      <c r="B54" s="321"/>
+      <c r="C54" s="321"/>
+      <c r="D54" s="321"/>
+      <c r="E54" s="321"/>
+      <c r="F54" s="321"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="321"/>
+      <c r="B55" s="321"/>
+      <c r="C55" s="321"/>
+      <c r="D55" s="321"/>
+      <c r="E55" s="321"/>
+      <c r="F55" s="321"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="321"/>
+      <c r="B56" s="321"/>
+      <c r="C56" s="321"/>
+      <c r="D56" s="321"/>
+      <c r="E56" s="321"/>
+      <c r="F56" s="321"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="321"/>
+      <c r="B57" s="321"/>
+      <c r="C57" s="321"/>
+      <c r="D57" s="321"/>
+      <c r="E57" s="321"/>
+      <c r="F57" s="321"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="321"/>
+      <c r="B58" s="321"/>
+      <c r="C58" s="321"/>
+      <c r="D58" s="321"/>
+      <c r="E58" s="321"/>
+      <c r="F58" s="321"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -47054,10 +47364,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection sqref="A1:K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -47076,31 +47386,31 @@
     <col min="12" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18">
-      <c r="A1" s="191" t="s">
+    <row r="1" spans="1:25" ht="18">
+      <c r="A1" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
     </row>
-    <row r="2" spans="1:24" ht="16.2" thickBot="1">
+    <row r="2" spans="1:25" ht="16.2" thickBot="1">
       <c r="K2" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="136" customFormat="1" ht="16.2" thickTop="1">
+    <row r="3" spans="1:25" s="136" customFormat="1" ht="16.2" thickTop="1">
       <c r="A3" s="44" t="s">
         <v>12</v>
       </c>
@@ -47129,7 +47439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="143" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:25" s="143" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="45" t="s">
         <v>27</v>
       </c>
@@ -47163,8 +47473,22 @@
       <c r="K4" s="41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="L4" s="321"/>
+      <c r="M4" s="321"/>
+      <c r="N4" s="321"/>
+      <c r="O4" s="321"/>
+      <c r="P4" s="321"/>
+      <c r="Q4" s="321"/>
+      <c r="R4" s="321"/>
+      <c r="S4" s="321"/>
+      <c r="T4" s="321"/>
+      <c r="U4" s="321"/>
+      <c r="V4" s="321"/>
+      <c r="W4" s="321"/>
+      <c r="X4" s="321"/>
+      <c r="Y4" s="321"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="46" t="s">
         <v>28</v>
       </c>
@@ -47193,7 +47517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="20" customFormat="1" ht="21.75" customHeight="1">
+    <row r="6" spans="1:25" s="20" customFormat="1" ht="21.75" customHeight="1">
       <c r="A6" s="145"/>
       <c r="B6" s="123"/>
       <c r="C6" s="123"/>
@@ -47206,7 +47530,7 @@
       <c r="J6" s="123"/>
       <c r="K6" s="124"/>
     </row>
-    <row r="7" spans="1:24" s="20" customFormat="1" ht="21.75" customHeight="1">
+    <row r="7" spans="1:25" s="20" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="125"/>
       <c r="B7" s="126"/>
       <c r="C7" s="126"/>
@@ -47219,7 +47543,7 @@
       <c r="J7" s="126"/>
       <c r="K7" s="127"/>
     </row>
-    <row r="8" spans="1:24" s="20" customFormat="1" ht="21.75" customHeight="1">
+    <row r="8" spans="1:25" s="20" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="125"/>
       <c r="B8" s="126"/>
       <c r="C8" s="126"/>
@@ -47232,7 +47556,7 @@
       <c r="J8" s="126"/>
       <c r="K8" s="127"/>
     </row>
-    <row r="9" spans="1:24" s="20" customFormat="1" ht="21.75" customHeight="1">
+    <row r="9" spans="1:25" s="20" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="125"/>
       <c r="B9" s="126"/>
       <c r="C9" s="126"/>
@@ -47245,7 +47569,7 @@
       <c r="J9" s="126"/>
       <c r="K9" s="127"/>
     </row>
-    <row r="10" spans="1:24" s="20" customFormat="1" ht="21.75" customHeight="1">
+    <row r="10" spans="1:25" s="20" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="125"/>
       <c r="B10" s="126"/>
       <c r="C10" s="126"/>
@@ -47258,7 +47582,7 @@
       <c r="J10" s="126"/>
       <c r="K10" s="127"/>
     </row>
-    <row r="11" spans="1:24" s="20" customFormat="1" ht="21.75" customHeight="1">
+    <row r="11" spans="1:25" s="20" customFormat="1" ht="21.75" customHeight="1">
       <c r="A11" s="125"/>
       <c r="B11" s="126"/>
       <c r="C11" s="126"/>
@@ -47271,7 +47595,7 @@
       <c r="J11" s="126"/>
       <c r="K11" s="127"/>
     </row>
-    <row r="12" spans="1:24" s="20" customFormat="1" ht="21.75" customHeight="1">
+    <row r="12" spans="1:25" s="20" customFormat="1" ht="21.75" customHeight="1">
       <c r="A12" s="125"/>
       <c r="B12" s="126"/>
       <c r="C12" s="126"/>
@@ -47284,7 +47608,7 @@
       <c r="J12" s="126"/>
       <c r="K12" s="127"/>
     </row>
-    <row r="13" spans="1:24" s="20" customFormat="1" ht="21.75" customHeight="1">
+    <row r="13" spans="1:25" s="20" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="125"/>
       <c r="B13" s="126"/>
       <c r="C13" s="126"/>
@@ -47297,7 +47621,7 @@
       <c r="J13" s="126"/>
       <c r="K13" s="127"/>
     </row>
-    <row r="14" spans="1:24" s="20" customFormat="1" ht="21.75" customHeight="1">
+    <row r="14" spans="1:25" s="20" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="125"/>
       <c r="B14" s="126"/>
       <c r="C14" s="126"/>
@@ -47310,7 +47634,7 @@
       <c r="J14" s="126"/>
       <c r="K14" s="127"/>
     </row>
-    <row r="15" spans="1:24" s="20" customFormat="1" ht="21.75" customHeight="1">
+    <row r="15" spans="1:25" s="20" customFormat="1" ht="21.75" customHeight="1">
       <c r="A15" s="125"/>
       <c r="B15" s="126"/>
       <c r="C15" s="126"/>
@@ -47323,7 +47647,7 @@
       <c r="J15" s="126"/>
       <c r="K15" s="127"/>
     </row>
-    <row r="16" spans="1:24" s="20" customFormat="1" ht="21.75" customHeight="1">
+    <row r="16" spans="1:25" s="20" customFormat="1" ht="21.75" customHeight="1">
       <c r="A16" s="125"/>
       <c r="B16" s="126"/>
       <c r="C16" s="126"/>
@@ -47526,7 +47850,7 @@
       <c r="A3" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="271" t="s">
         <v>240</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -47541,7 +47865,7 @@
       <c r="F3" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="268" t="s">
+      <c r="G3" s="271" t="s">
         <v>243</v>
       </c>
       <c r="H3" s="34" t="s">
@@ -47552,7 +47876,7 @@
       <c r="A4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="269" t="s">
+      <c r="B4" s="272" t="s">
         <v>150</v>
       </c>
       <c r="C4" s="36" t="s">
@@ -47567,7 +47891,7 @@
       <c r="F4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="269"/>
+      <c r="G4" s="272"/>
       <c r="H4" s="37" t="s">
         <v>5</v>
       </c>
@@ -47800,8 +48124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:Q27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -47848,7 +48172,7 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="136" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A3" s="272" t="s">
+      <c r="A3" s="281" t="s">
         <v>235</v>
       </c>
       <c r="B3" s="275" t="s">
@@ -47885,7 +48209,7 @@
       </c>
     </row>
     <row r="4" spans="1:30" s="143" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="273"/>
+      <c r="A4" s="282"/>
       <c r="B4" s="276" t="s">
         <v>149</v>
       </c>
@@ -47898,16 +48222,16 @@
       <c r="E4" s="276" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="270"/>
-      <c r="G4" s="270"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="270"/>
-      <c r="J4" s="270"/>
-      <c r="K4" s="270"/>
-      <c r="L4" s="270"/>
-      <c r="M4" s="270"/>
-      <c r="N4" s="270"/>
-      <c r="O4" s="270"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
       <c r="P4" s="276" t="s">
         <v>154</v>
       </c>
@@ -47916,23 +48240,23 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A5" s="274"/>
+      <c r="A5" s="283"/>
       <c r="B5" s="277"/>
       <c r="C5" s="277"/>
       <c r="D5" s="277" t="s">
         <v>156</v>
       </c>
       <c r="E5" s="277"/>
-      <c r="F5" s="271"/>
-      <c r="G5" s="271"/>
-      <c r="H5" s="271"/>
-      <c r="I5" s="271"/>
-      <c r="J5" s="271"/>
-      <c r="K5" s="271"/>
-      <c r="L5" s="271"/>
-      <c r="M5" s="271"/>
-      <c r="N5" s="271"/>
-      <c r="O5" s="271"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="274"/>
+      <c r="J5" s="274"/>
+      <c r="K5" s="274"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="274"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="274"/>
       <c r="P5" s="277"/>
       <c r="Q5" s="280"/>
     </row>
@@ -48319,6 +48643,10 @@
     <row r="26" spans="1:17" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="P3:P5"/>
@@ -48332,10 +48660,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -48421,7 +48745,7 @@
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:28" s="136" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="281" t="s">
         <v>201</v>
       </c>
       <c r="B4" s="275" t="s">
@@ -48454,8 +48778,8 @@
       </c>
     </row>
     <row r="5" spans="1:28" s="143" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="273"/>
-      <c r="B5" s="281"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="284"/>
       <c r="C5" s="276" t="s">
         <v>151</v>
       </c>
@@ -48502,8 +48826,8 @@
       <c r="AB5" s="136"/>
     </row>
     <row r="6" spans="1:28" ht="30" customHeight="1">
-      <c r="A6" s="274"/>
-      <c r="B6" s="282"/>
+      <c r="A6" s="283"/>
+      <c r="B6" s="285"/>
       <c r="C6" s="277"/>
       <c r="D6" s="277" t="s">
         <v>156</v>
@@ -48844,8 +49168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J26" sqref="B1:J26"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -49196,7 +49520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H27" sqref="A1:H27"/>
     </sheetView>
   </sheetViews>
@@ -49214,16 +49538,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="196" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="T1" s="17" t="s">
@@ -49250,7 +49574,7 @@
       <c r="U2" s="17"/>
     </row>
     <row r="3" spans="1:21" s="136" customFormat="1" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A3" s="272" t="s">
+      <c r="A3" s="281" t="s">
         <v>201</v>
       </c>
       <c r="B3" s="275" t="s">
@@ -49274,7 +49598,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" s="143" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="273"/>
+      <c r="A4" s="282"/>
       <c r="B4" s="276" t="s">
         <v>149</v>
       </c>
@@ -49287,10 +49611,10 @@
       <c r="E4" s="276" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="283" t="s">
+      <c r="F4" s="286" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="283" t="s">
+      <c r="G4" s="286" t="s">
         <v>209</v>
       </c>
       <c r="H4" s="279" t="s">
@@ -49298,13 +49622,13 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="274"/>
+      <c r="A5" s="283"/>
       <c r="B5" s="277"/>
       <c r="C5" s="277"/>
       <c r="D5" s="277"/>
       <c r="E5" s="277"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202" t="s">
+      <c r="F5" s="221"/>
+      <c r="G5" s="221" t="s">
         <v>135</v>
       </c>
       <c r="H5" s="280"/>
@@ -49547,7 +49871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -49562,29 +49886,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="287" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A3" s="285" t="s">
+      <c r="A3" s="288" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="285" t="s">
+      <c r="B3" s="288" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
       <c r="E3" s="14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="167" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="285"/>
+      <c r="A4" s="288"/>
       <c r="B4" s="15" t="s">
         <v>194</v>
       </c>
@@ -49770,10 +50094,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" ht="20.25" customHeight="1">
-      <c r="C1" s="191" t="s">
+      <c r="C1" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="191"/>
+      <c r="D1" s="196"/>
       <c r="E1" s="90"/>
       <c r="F1" s="90"/>
       <c r="G1" s="90"/>
@@ -49788,30 +50112,30 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.2" thickTop="1">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="200" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="202" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="202" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="197" t="s">
+      <c r="D3" s="202" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="192" t="s">
+      <c r="E3" s="197" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="194"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="199"/>
     </row>
     <row r="4" spans="1:15" s="25" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="196"/>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
+      <c r="A4" s="201"/>
+      <c r="B4" s="203"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="61" t="s">
         <v>159</v>
       </c>
@@ -50148,7 +50472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="102" workbookViewId="0">
       <selection activeCell="E26" sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
@@ -50163,30 +50487,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="289" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickTop="1">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="290" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="289" t="s">
+      <c r="B2" s="292" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="291" t="s">
+      <c r="C2" s="294" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="292"/>
-      <c r="E2" s="293"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="296"/>
     </row>
     <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="288"/>
-      <c r="B3" s="290"/>
+      <c r="A3" s="291"/>
+      <c r="B3" s="293"/>
       <c r="C3" s="3" t="s">
         <v>165</v>
       </c>
@@ -50703,8 +51027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:U27"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -50756,25 +51080,25 @@
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:22" ht="18" customHeight="1" thickTop="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="209" t="s">
+      <c r="D4" s="212" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="217" t="s">
+      <c r="E4" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="219"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="215"/>
       <c r="J4" s="58" t="s">
         <v>70</v>
       </c>
@@ -50787,128 +51111,128 @@
       <c r="O4" s="104"/>
       <c r="P4" s="104"/>
       <c r="Q4" s="104"/>
-      <c r="R4" s="209" t="s">
+      <c r="R4" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="209" t="s">
+      <c r="S4" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="209" t="s">
+      <c r="T4" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="U4" s="206" t="s">
+      <c r="U4" s="216" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1">
-      <c r="A5" s="212"/>
-      <c r="B5" s="201"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="214" t="s">
+      <c r="A5" s="205"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="214" t="s">
+      <c r="F5" s="207" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="199" t="s">
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="199" t="s">
+      <c r="K5" s="207" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="199" t="s">
+      <c r="L5" s="207" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="199" t="s">
+      <c r="M5" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="199" t="s">
+      <c r="N5" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="199" t="s">
+      <c r="O5" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="199"/>
-      <c r="R5" s="199"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="199"/>
-      <c r="U5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="217"/>
     </row>
     <row r="6" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A6" s="212"/>
-      <c r="B6" s="201"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="199"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199"/>
-      <c r="O6" s="199"/>
-      <c r="P6" s="199"/>
-      <c r="Q6" s="199"/>
-      <c r="R6" s="199"/>
-      <c r="S6" s="199"/>
-      <c r="T6" s="199"/>
-      <c r="U6" s="207"/>
+      <c r="A6" s="205"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="217"/>
     </row>
     <row r="7" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A7" s="212"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="199"/>
-      <c r="R7" s="199"/>
-      <c r="S7" s="199"/>
-      <c r="T7" s="199"/>
-      <c r="U7" s="207"/>
-    </row>
-    <row r="8" spans="1:22" ht="21" customHeight="1">
-      <c r="A8" s="213"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="210" t="s">
+      <c r="A7" s="205"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="207"/>
+      <c r="R7" s="207"/>
+      <c r="S7" s="207"/>
+      <c r="T7" s="207"/>
+      <c r="U7" s="217"/>
+    </row>
+    <row r="8" spans="1:22" ht="33.6" customHeight="1">
+      <c r="A8" s="206"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="211" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="199"/>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="199"/>
-      <c r="Q8" s="199"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="208"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="207"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="207"/>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="211"/>
+      <c r="S8" s="211"/>
+      <c r="T8" s="211"/>
+      <c r="U8" s="218"/>
     </row>
     <row r="9" spans="1:22" ht="21" customHeight="1">
       <c r="A9" s="105"/>
@@ -51350,6 +51674,14 @@
     <row r="28" spans="1:21" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="T4:T8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="N5:N8"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="P5:P8"/>
     <mergeCell ref="E5:E8"/>
@@ -51360,15 +51692,7 @@
     <mergeCell ref="K5:K8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:I4"/>
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="Q5:Q8"/>
     <mergeCell ref="L5:L8"/>
-    <mergeCell ref="N5:N8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="G5:G8"/>
@@ -51384,8 +51708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:Q8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -51400,9 +51724,8 @@
     <col min="9" max="11" width="3.109375" style="25" customWidth="1"/>
     <col min="12" max="12" width="4.5546875" style="25" customWidth="1"/>
     <col min="13" max="14" width="3.109375" style="25" customWidth="1"/>
-    <col min="15" max="15" width="2.88671875" style="25" customWidth="1"/>
-    <col min="16" max="16" width="4.109375" style="25" customWidth="1"/>
-    <col min="17" max="17" width="5" style="25" customWidth="1"/>
+    <col min="15" max="15" width="2.6640625" style="25" customWidth="1"/>
+    <col min="16" max="17" width="4.77734375" style="25" customWidth="1"/>
     <col min="18" max="23" width="3.44140625" style="25" customWidth="1"/>
     <col min="24" max="24" width="3.5546875" style="25" customWidth="1"/>
     <col min="25" max="29" width="3.44140625" style="25" customWidth="1"/>
@@ -51468,230 +51791,234 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:31" ht="6.75" customHeight="1" thickBot="1">
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
+      <c r="R3" s="302"/>
+    </row>
     <row r="4" spans="1:31" ht="18" customHeight="1" thickTop="1">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="231" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="228" t="s">
+      <c r="D4" s="234" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="297" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="220" t="s">
+      <c r="F4" s="297"/>
+      <c r="G4" s="297"/>
+      <c r="H4" s="297"/>
+      <c r="I4" s="297"/>
+      <c r="J4" s="297"/>
+      <c r="K4" s="297"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="297"/>
+      <c r="P4" s="299" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="49" t="s">
+      <c r="Q4" s="300"/>
+      <c r="R4" s="301" t="s">
         <v>71</v>
       </c>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="228" t="s">
+      <c r="S4" s="298"/>
+      <c r="T4" s="298"/>
+      <c r="U4" s="298"/>
+      <c r="V4" s="298"/>
+      <c r="W4" s="298"/>
+      <c r="X4" s="298"/>
+      <c r="Y4" s="298"/>
+      <c r="Z4" s="234" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" s="228" t="s">
+      <c r="AA4" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="AB4" s="228" t="s">
+      <c r="AB4" s="234" t="s">
         <v>220</v>
       </c>
-      <c r="AC4" s="228" t="s">
+      <c r="AC4" s="234" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" s="225" t="s">
+      <c r="AD4" s="237" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1">
-      <c r="A5" s="232"/>
-      <c r="B5" s="235"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="222" t="s">
+      <c r="A5" s="226"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="222" t="s">
+      <c r="F5" s="228" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="222" t="s">
+      <c r="G5" s="228" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="222" t="s">
+      <c r="H5" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="222" t="s">
+      <c r="I5" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="222" t="s">
+      <c r="J5" s="228" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="222" t="s">
+      <c r="K5" s="228" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="222" t="s">
+      <c r="L5" s="228" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="222" t="s">
+      <c r="M5" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="222" t="s">
+      <c r="N5" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="O5" s="222"/>
-      <c r="P5" s="222" t="s">
+      <c r="O5" s="228"/>
+      <c r="P5" s="228" t="s">
         <v>98</v>
       </c>
-      <c r="Q5" s="222" t="s">
+      <c r="Q5" s="228" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="222" t="s">
+      <c r="R5" s="228" t="s">
         <v>109</v>
       </c>
-      <c r="S5" s="222" t="s">
+      <c r="S5" s="228" t="s">
         <v>110</v>
       </c>
-      <c r="T5" s="222" t="s">
+      <c r="T5" s="228" t="s">
         <v>111</v>
       </c>
-      <c r="U5" s="222" t="s">
+      <c r="U5" s="228" t="s">
         <v>112</v>
       </c>
-      <c r="V5" s="222" t="s">
+      <c r="V5" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="W5" s="222" t="s">
+      <c r="W5" s="228" t="s">
         <v>79</v>
       </c>
-      <c r="X5" s="222" t="s">
+      <c r="X5" s="228" t="s">
         <v>113</v>
       </c>
-      <c r="Y5" s="222" t="s">
+      <c r="Y5" s="228" t="s">
         <v>114</v>
       </c>
-      <c r="Z5" s="229"/>
-      <c r="AA5" s="229"/>
-      <c r="AB5" s="229"/>
-      <c r="AC5" s="229"/>
-      <c r="AD5" s="226"/>
+      <c r="Z5" s="235"/>
+      <c r="AA5" s="235"/>
+      <c r="AB5" s="235"/>
+      <c r="AC5" s="235"/>
+      <c r="AD5" s="238"/>
     </row>
     <row r="6" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A6" s="232"/>
-      <c r="B6" s="235"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="223"/>
-      <c r="P6" s="223"/>
-      <c r="Q6" s="223"/>
-      <c r="R6" s="223"/>
-      <c r="S6" s="223"/>
-      <c r="T6" s="223"/>
-      <c r="U6" s="223"/>
-      <c r="V6" s="223"/>
-      <c r="W6" s="223"/>
-      <c r="X6" s="223"/>
-      <c r="Y6" s="223"/>
-      <c r="Z6" s="229"/>
-      <c r="AA6" s="229"/>
-      <c r="AB6" s="229"/>
-      <c r="AC6" s="229"/>
-      <c r="AD6" s="226"/>
+      <c r="A6" s="226"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="229"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="229"/>
+      <c r="M6" s="229"/>
+      <c r="N6" s="229"/>
+      <c r="O6" s="229"/>
+      <c r="P6" s="229"/>
+      <c r="Q6" s="229"/>
+      <c r="R6" s="229"/>
+      <c r="S6" s="229"/>
+      <c r="T6" s="229"/>
+      <c r="U6" s="229"/>
+      <c r="V6" s="229"/>
+      <c r="W6" s="229"/>
+      <c r="X6" s="229"/>
+      <c r="Y6" s="229"/>
+      <c r="Z6" s="235"/>
+      <c r="AA6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="235"/>
+      <c r="AD6" s="238"/>
     </row>
     <row r="7" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A7" s="232"/>
-      <c r="B7" s="235"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="223"/>
-      <c r="S7" s="223"/>
-      <c r="T7" s="223"/>
-      <c r="U7" s="223"/>
-      <c r="V7" s="223"/>
-      <c r="W7" s="223"/>
-      <c r="X7" s="223"/>
-      <c r="Y7" s="223"/>
-      <c r="Z7" s="229"/>
-      <c r="AA7" s="229"/>
-      <c r="AB7" s="229"/>
-      <c r="AC7" s="229"/>
-      <c r="AD7" s="226"/>
-    </row>
-    <row r="8" spans="1:31" ht="58.5" customHeight="1">
-      <c r="A8" s="233"/>
-      <c r="B8" s="236"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="224"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="224"/>
-      <c r="U8" s="224"/>
-      <c r="V8" s="224"/>
-      <c r="W8" s="224"/>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="224"/>
-      <c r="Z8" s="230"/>
-      <c r="AA8" s="230"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="230"/>
-      <c r="AD8" s="227"/>
+      <c r="A7" s="226"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="229"/>
+      <c r="R7" s="229"/>
+      <c r="S7" s="229"/>
+      <c r="T7" s="229"/>
+      <c r="U7" s="229"/>
+      <c r="V7" s="229"/>
+      <c r="W7" s="229"/>
+      <c r="X7" s="229"/>
+      <c r="Y7" s="229"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="235"/>
+      <c r="AB7" s="235"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="238"/>
+    </row>
+    <row r="8" spans="1:31" ht="66.599999999999994" customHeight="1">
+      <c r="A8" s="227"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="230"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="230"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="230"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="230"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="230"/>
+      <c r="W8" s="230"/>
+      <c r="X8" s="230"/>
+      <c r="Y8" s="230"/>
+      <c r="Z8" s="236"/>
+      <c r="AA8" s="236"/>
+      <c r="AB8" s="236"/>
+      <c r="AC8" s="236"/>
+      <c r="AD8" s="239"/>
     </row>
     <row r="9" spans="1:31" ht="19.5" customHeight="1">
       <c r="A9" s="105"/>
@@ -52304,6 +52631,29 @@
     <row r="28" spans="1:30" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="AD4:AD8"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="AB4:AB8"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="Y5:Y8"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="Z4:Z8"/>
+    <mergeCell ref="W5:W8"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="U5:U8"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="S5:S8"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="H5:H8"/>
@@ -52312,29 +52662,6 @@
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="E5:E8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="AD4:AD8"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="AB4:AB8"/>
-    <mergeCell ref="X5:X8"/>
-    <mergeCell ref="Y5:Y8"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="Z4:Z8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="W5:W8"/>
-    <mergeCell ref="T5:T8"/>
-    <mergeCell ref="U5:U8"/>
-    <mergeCell ref="R5:R8"/>
-    <mergeCell ref="V5:V8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="S5:S8"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="Q5:Q8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.5" top="0.5" bottom="0.5" header="0.2" footer="0"/>
@@ -52347,7 +52674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection sqref="A1:AD26"/>
     </sheetView>
   </sheetViews>
@@ -52441,35 +52768,35 @@
       <c r="AB3" s="60"/>
     </row>
     <row r="4" spans="1:30" s="70" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A4" s="246" t="s">
+      <c r="A4" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="246" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="249" t="s">
+      <c r="C4" s="246" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="228" t="s">
+      <c r="D4" s="234" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="243" t="s">
+      <c r="E4" s="255" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="244"/>
-      <c r="M4" s="244"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="240" t="s">
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="257"/>
+      <c r="O4" s="252" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="241"/>
-      <c r="Q4" s="242"/>
+      <c r="P4" s="253"/>
+      <c r="Q4" s="254"/>
       <c r="R4" s="59" t="s">
         <v>71</v>
       </c>
@@ -52480,189 +52807,189 @@
       <c r="W4" s="49"/>
       <c r="X4" s="49"/>
       <c r="Y4" s="49"/>
-      <c r="Z4" s="228" t="s">
+      <c r="Z4" s="234" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" s="228" t="s">
+      <c r="AA4" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="AB4" s="228" t="s">
+      <c r="AB4" s="234" t="s">
         <v>220</v>
       </c>
-      <c r="AC4" s="228" t="s">
+      <c r="AC4" s="234" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" s="252" t="s">
+      <c r="AD4" s="240" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1">
-      <c r="A5" s="247"/>
-      <c r="B5" s="250"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="222" t="s">
+      <c r="A5" s="244"/>
+      <c r="B5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="222" t="s">
+      <c r="F5" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="222" t="s">
+      <c r="G5" s="228" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="237" t="s">
+      <c r="H5" s="249" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="222" t="s">
+      <c r="I5" s="228" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="222" t="s">
+      <c r="J5" s="228" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="222" t="s">
+      <c r="K5" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="222" t="s">
+      <c r="L5" s="228" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="222" t="s">
+      <c r="M5" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="222" t="s">
+      <c r="N5" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="O5" s="222"/>
-      <c r="P5" s="222" t="s">
+      <c r="O5" s="228"/>
+      <c r="P5" s="228" t="s">
         <v>98</v>
       </c>
-      <c r="Q5" s="222" t="s">
+      <c r="Q5" s="228" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="222" t="s">
+      <c r="R5" s="228" t="s">
         <v>109</v>
       </c>
-      <c r="S5" s="222" t="s">
+      <c r="S5" s="228" t="s">
         <v>110</v>
       </c>
-      <c r="T5" s="222" t="s">
+      <c r="T5" s="228" t="s">
         <v>111</v>
       </c>
-      <c r="U5" s="222" t="s">
+      <c r="U5" s="228" t="s">
         <v>112</v>
       </c>
-      <c r="V5" s="222" t="s">
+      <c r="V5" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="W5" s="222" t="s">
+      <c r="W5" s="228" t="s">
         <v>79</v>
       </c>
-      <c r="X5" s="222" t="s">
+      <c r="X5" s="228" t="s">
         <v>113</v>
       </c>
-      <c r="Y5" s="222" t="s">
+      <c r="Y5" s="228" t="s">
         <v>114</v>
       </c>
-      <c r="Z5" s="229"/>
-      <c r="AA5" s="229"/>
-      <c r="AB5" s="229"/>
-      <c r="AC5" s="229"/>
-      <c r="AD5" s="253"/>
+      <c r="Z5" s="235"/>
+      <c r="AA5" s="235"/>
+      <c r="AB5" s="235"/>
+      <c r="AC5" s="235"/>
+      <c r="AD5" s="241"/>
     </row>
     <row r="6" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A6" s="247"/>
-      <c r="B6" s="250"/>
-      <c r="C6" s="250"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="223"/>
-      <c r="P6" s="223"/>
-      <c r="Q6" s="223"/>
-      <c r="R6" s="223"/>
-      <c r="S6" s="223"/>
-      <c r="T6" s="223"/>
-      <c r="U6" s="223"/>
-      <c r="V6" s="223"/>
-      <c r="W6" s="223"/>
-      <c r="X6" s="223"/>
-      <c r="Y6" s="223"/>
-      <c r="Z6" s="229"/>
-      <c r="AA6" s="229"/>
-      <c r="AB6" s="229"/>
-      <c r="AC6" s="229"/>
-      <c r="AD6" s="253"/>
+      <c r="A6" s="244"/>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="250"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="229"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="229"/>
+      <c r="M6" s="229"/>
+      <c r="N6" s="229"/>
+      <c r="O6" s="229"/>
+      <c r="P6" s="229"/>
+      <c r="Q6" s="229"/>
+      <c r="R6" s="229"/>
+      <c r="S6" s="229"/>
+      <c r="T6" s="229"/>
+      <c r="U6" s="229"/>
+      <c r="V6" s="229"/>
+      <c r="W6" s="229"/>
+      <c r="X6" s="229"/>
+      <c r="Y6" s="229"/>
+      <c r="Z6" s="235"/>
+      <c r="AA6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="235"/>
+      <c r="AD6" s="241"/>
     </row>
     <row r="7" spans="1:30" ht="12.75" customHeight="1">
-      <c r="A7" s="247"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="223"/>
-      <c r="S7" s="223"/>
-      <c r="T7" s="223"/>
-      <c r="U7" s="223"/>
-      <c r="V7" s="223"/>
-      <c r="W7" s="223"/>
-      <c r="X7" s="223"/>
-      <c r="Y7" s="223"/>
-      <c r="Z7" s="229"/>
-      <c r="AA7" s="229"/>
-      <c r="AB7" s="229"/>
-      <c r="AC7" s="229"/>
-      <c r="AD7" s="253"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="229"/>
+      <c r="R7" s="229"/>
+      <c r="S7" s="229"/>
+      <c r="T7" s="229"/>
+      <c r="U7" s="229"/>
+      <c r="V7" s="229"/>
+      <c r="W7" s="229"/>
+      <c r="X7" s="229"/>
+      <c r="Y7" s="229"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="235"/>
+      <c r="AB7" s="235"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="241"/>
     </row>
     <row r="8" spans="1:30" ht="48" customHeight="1">
-      <c r="A8" s="248"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="239"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="224"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="224"/>
-      <c r="U8" s="224"/>
-      <c r="V8" s="224"/>
-      <c r="W8" s="224"/>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="224"/>
-      <c r="Z8" s="230"/>
-      <c r="AA8" s="230"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="230"/>
-      <c r="AD8" s="254"/>
+      <c r="A8" s="245"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="230"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="230"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="230"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="230"/>
+      <c r="W8" s="230"/>
+      <c r="X8" s="230"/>
+      <c r="Y8" s="230"/>
+      <c r="Z8" s="236"/>
+      <c r="AA8" s="236"/>
+      <c r="AB8" s="236"/>
+      <c r="AC8" s="236"/>
+      <c r="AD8" s="242"/>
     </row>
     <row r="9" spans="1:30" ht="21.75" customHeight="1">
       <c r="A9" s="105"/>
@@ -53243,20 +53570,6 @@
     <row r="27" spans="1:30" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="R5:R8"/>
-    <mergeCell ref="I5:I8"/>
-    <mergeCell ref="T5:T8"/>
-    <mergeCell ref="S5:S8"/>
-    <mergeCell ref="AB4:AB8"/>
-    <mergeCell ref="V5:V8"/>
-    <mergeCell ref="W5:W8"/>
-    <mergeCell ref="AA4:AA8"/>
-    <mergeCell ref="Y5:Y8"/>
-    <mergeCell ref="AC4:AC8"/>
-    <mergeCell ref="X5:X8"/>
-    <mergeCell ref="AD4:AD8"/>
-    <mergeCell ref="Z4:Z8"/>
-    <mergeCell ref="U5:U8"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
@@ -53269,9 +53582,23 @@
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="K5:K8"/>
-    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="E4:N4"/>
     <mergeCell ref="N5:N8"/>
+    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="AD4:AD8"/>
+    <mergeCell ref="Z4:Z8"/>
+    <mergeCell ref="U5:U8"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="S5:S8"/>
+    <mergeCell ref="AB4:AB8"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="W5:W8"/>
+    <mergeCell ref="AA4:AA8"/>
+    <mergeCell ref="Y5:Y8"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="Q5:Q8"/>
     <mergeCell ref="P5:P8"/>
     <mergeCell ref="O5:O8"/>
@@ -53287,8 +53614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:AE25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -53310,849 +53637,899 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21" customHeight="1">
-      <c r="F1" s="24" t="s">
+      <c r="A1" s="320" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
+      <c r="L1" s="320"/>
+      <c r="M1" s="320"/>
+      <c r="N1" s="320"/>
+      <c r="O1" s="320"/>
+      <c r="P1" s="320"/>
+      <c r="Q1" s="320"/>
+      <c r="R1" s="320"/>
+      <c r="S1" s="320"/>
+      <c r="T1" s="320"/>
+      <c r="U1" s="320"/>
+      <c r="V1" s="320"/>
+      <c r="W1" s="320"/>
+      <c r="X1" s="320"/>
+      <c r="Y1" s="320"/>
+      <c r="Z1" s="320"/>
+      <c r="AA1" s="320"/>
+      <c r="AB1" s="320"/>
+      <c r="AC1" s="320"/>
+      <c r="AD1" s="320"/>
+      <c r="AE1" s="320"/>
     </row>
     <row r="2" spans="1:31" ht="16.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="308" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AC2" s="25" t="s">
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
+      <c r="J2" s="306"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="306"/>
+      <c r="M2" s="306"/>
+      <c r="N2" s="306"/>
+      <c r="O2" s="306"/>
+      <c r="P2" s="306"/>
+      <c r="Q2" s="306"/>
+      <c r="R2" s="306"/>
+      <c r="S2" s="306"/>
+      <c r="T2" s="306"/>
+      <c r="U2" s="306"/>
+      <c r="V2" s="306"/>
+      <c r="W2" s="306"/>
+      <c r="X2" s="306"/>
+      <c r="Y2" s="306"/>
+      <c r="Z2" s="309"/>
+      <c r="AA2" s="309"/>
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="192" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" ht="6" customHeight="1" thickBot="1"/>
+      <c r="AD2" s="306"/>
+      <c r="AE2" s="306"/>
+    </row>
+    <row r="3" spans="1:31" ht="6" customHeight="1" thickBot="1">
+      <c r="A3" s="306"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="306"/>
+      <c r="H3" s="306"/>
+      <c r="I3" s="306"/>
+      <c r="J3" s="306"/>
+      <c r="K3" s="306"/>
+      <c r="L3" s="306"/>
+      <c r="M3" s="306"/>
+      <c r="N3" s="306"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="306"/>
+      <c r="Q3" s="306"/>
+      <c r="R3" s="306"/>
+      <c r="S3" s="306"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="306"/>
+      <c r="AA3" s="306"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="306"/>
+      <c r="AD3" s="306"/>
+      <c r="AE3" s="306"/>
+    </row>
     <row r="4" spans="1:31" ht="18" customHeight="1" thickTop="1">
-      <c r="A4" s="246" t="s">
+      <c r="A4" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="246" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="249" t="s">
+      <c r="C4" s="246" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="228" t="s">
+      <c r="D4" s="234" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="303" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="241"/>
-      <c r="K4" s="241"/>
-      <c r="L4" s="241"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="241"/>
-      <c r="O4" s="241"/>
-      <c r="P4" s="241"/>
-      <c r="Q4" s="241"/>
-      <c r="R4" s="241"/>
-      <c r="S4" s="242"/>
-      <c r="T4" s="59" t="s">
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="304"/>
+      <c r="O4" s="304"/>
+      <c r="P4" s="304"/>
+      <c r="Q4" s="304"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="305"/>
+      <c r="T4" s="310" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59" t="s">
+      <c r="U4" s="310"/>
+      <c r="V4" s="310"/>
+      <c r="W4" s="310" t="s">
         <v>71</v>
       </c>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="228" t="s">
+      <c r="X4" s="310"/>
+      <c r="Y4" s="310"/>
+      <c r="Z4" s="310"/>
+      <c r="AA4" s="310"/>
+      <c r="AB4" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="AC4" s="228" t="s">
+      <c r="AC4" s="234" t="s">
         <v>220</v>
       </c>
-      <c r="AD4" s="228" t="s">
+      <c r="AD4" s="234" t="s">
         <v>74</v>
       </c>
-      <c r="AE4" s="252" t="s">
+      <c r="AE4" s="240" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1">
-      <c r="A5" s="247"/>
-      <c r="B5" s="250"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="222" t="s">
+      <c r="A5" s="244"/>
+      <c r="B5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="222" t="s">
+      <c r="F5" s="228" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="222" t="s">
+      <c r="G5" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="222" t="s">
+      <c r="H5" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="222" t="s">
+      <c r="I5" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="222" t="s">
+      <c r="J5" s="228" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="222" t="s">
+      <c r="K5" s="228" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="222" t="s">
+      <c r="L5" s="228" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="222" t="s">
+      <c r="M5" s="228" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="222" t="s">
+      <c r="N5" s="228" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="222" t="s">
+      <c r="O5" s="228" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="222" t="s">
+      <c r="P5" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="222" t="s">
+      <c r="Q5" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="222" t="s">
+      <c r="R5" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="222"/>
-      <c r="T5" s="229" t="s">
+      <c r="S5" s="228"/>
+      <c r="T5" s="235" t="s">
         <v>134</v>
       </c>
-      <c r="U5" s="229" t="s">
+      <c r="U5" s="235" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="229" t="s">
+      <c r="V5" s="235" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="229" t="s">
+      <c r="W5" s="235" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="229" t="s">
+      <c r="X5" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="Y5" s="229" t="s">
+      <c r="Y5" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="Z5" s="229" t="s">
+      <c r="Z5" s="235" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="229"/>
-      <c r="AB5" s="229"/>
-      <c r="AC5" s="229"/>
-      <c r="AD5" s="229"/>
-      <c r="AE5" s="253"/>
+      <c r="AA5" s="235"/>
+      <c r="AB5" s="235"/>
+      <c r="AC5" s="235"/>
+      <c r="AD5" s="235"/>
+      <c r="AE5" s="241"/>
     </row>
     <row r="6" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A6" s="247"/>
-      <c r="B6" s="250"/>
-      <c r="C6" s="250"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="223"/>
-      <c r="P6" s="223"/>
-      <c r="Q6" s="223"/>
-      <c r="R6" s="223"/>
-      <c r="S6" s="223"/>
-      <c r="T6" s="229"/>
-      <c r="U6" s="229"/>
-      <c r="V6" s="229"/>
-      <c r="W6" s="229"/>
-      <c r="X6" s="229"/>
-      <c r="Y6" s="229"/>
-      <c r="Z6" s="229"/>
-      <c r="AA6" s="229"/>
-      <c r="AB6" s="229"/>
-      <c r="AC6" s="229"/>
-      <c r="AD6" s="229"/>
-      <c r="AE6" s="253"/>
+      <c r="A6" s="244"/>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="229"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="229"/>
+      <c r="M6" s="229"/>
+      <c r="N6" s="229"/>
+      <c r="O6" s="229"/>
+      <c r="P6" s="229"/>
+      <c r="Q6" s="229"/>
+      <c r="R6" s="229"/>
+      <c r="S6" s="229"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="235"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="235"/>
+      <c r="AA6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="235"/>
+      <c r="AD6" s="235"/>
+      <c r="AE6" s="241"/>
     </row>
     <row r="7" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A7" s="247"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="223"/>
-      <c r="S7" s="223"/>
-      <c r="T7" s="229"/>
-      <c r="U7" s="229"/>
-      <c r="V7" s="229"/>
-      <c r="W7" s="229"/>
-      <c r="X7" s="229"/>
-      <c r="Y7" s="229"/>
-      <c r="Z7" s="229"/>
-      <c r="AA7" s="229"/>
-      <c r="AB7" s="229"/>
-      <c r="AC7" s="229"/>
-      <c r="AD7" s="229"/>
-      <c r="AE7" s="253"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="229"/>
+      <c r="R7" s="229"/>
+      <c r="S7" s="229"/>
+      <c r="T7" s="235"/>
+      <c r="U7" s="235"/>
+      <c r="V7" s="235"/>
+      <c r="W7" s="235"/>
+      <c r="X7" s="235"/>
+      <c r="Y7" s="235"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="235"/>
+      <c r="AB7" s="235"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="235"/>
+      <c r="AE7" s="241"/>
     </row>
     <row r="8" spans="1:31" ht="60.75" customHeight="1">
-      <c r="A8" s="248"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="224"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="229"/>
-      <c r="U8" s="229"/>
-      <c r="V8" s="229"/>
-      <c r="W8" s="229"/>
-      <c r="X8" s="229"/>
-      <c r="Y8" s="229"/>
-      <c r="Z8" s="229"/>
-      <c r="AA8" s="229"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="230"/>
-      <c r="AD8" s="230"/>
-      <c r="AE8" s="254"/>
+      <c r="A8" s="245"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="230"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="230"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="230"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="235"/>
+      <c r="W8" s="235"/>
+      <c r="X8" s="235"/>
+      <c r="Y8" s="235"/>
+      <c r="Z8" s="235"/>
+      <c r="AA8" s="235"/>
+      <c r="AB8" s="236"/>
+      <c r="AC8" s="236"/>
+      <c r="AD8" s="236"/>
+      <c r="AE8" s="242"/>
     </row>
     <row r="9" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="112"/>
+      <c r="A9" s="311"/>
+      <c r="B9" s="312"/>
+      <c r="C9" s="312"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
+      <c r="I9" s="312"/>
+      <c r="J9" s="312"/>
+      <c r="K9" s="312"/>
+      <c r="L9" s="312"/>
+      <c r="M9" s="312"/>
+      <c r="N9" s="312"/>
+      <c r="O9" s="312"/>
+      <c r="P9" s="312"/>
+      <c r="Q9" s="312"/>
+      <c r="R9" s="312"/>
+      <c r="S9" s="312"/>
+      <c r="T9" s="312"/>
+      <c r="U9" s="312"/>
+      <c r="V9" s="312"/>
+      <c r="W9" s="312"/>
+      <c r="X9" s="312"/>
+      <c r="Y9" s="312"/>
+      <c r="Z9" s="312"/>
+      <c r="AA9" s="312"/>
+      <c r="AB9" s="312"/>
+      <c r="AC9" s="312"/>
+      <c r="AD9" s="312"/>
+      <c r="AE9" s="313"/>
     </row>
     <row r="10" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="114"/>
+      <c r="A10" s="314"/>
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="315"/>
+      <c r="J10" s="315"/>
+      <c r="K10" s="315"/>
+      <c r="L10" s="315"/>
+      <c r="M10" s="315"/>
+      <c r="N10" s="315"/>
+      <c r="O10" s="315"/>
+      <c r="P10" s="315"/>
+      <c r="Q10" s="315"/>
+      <c r="R10" s="315"/>
+      <c r="S10" s="315"/>
+      <c r="T10" s="315"/>
+      <c r="U10" s="315"/>
+      <c r="V10" s="315"/>
+      <c r="W10" s="315"/>
+      <c r="X10" s="315"/>
+      <c r="Y10" s="315"/>
+      <c r="Z10" s="315"/>
+      <c r="AA10" s="315"/>
+      <c r="AB10" s="315"/>
+      <c r="AC10" s="315"/>
+      <c r="AD10" s="315"/>
+      <c r="AE10" s="316"/>
     </row>
     <row r="11" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A11" s="83"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="113"/>
-      <c r="AA11" s="113"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="113"/>
-      <c r="AD11" s="113"/>
-      <c r="AE11" s="114"/>
+      <c r="A11" s="314"/>
+      <c r="B11" s="315"/>
+      <c r="C11" s="315"/>
+      <c r="D11" s="315"/>
+      <c r="E11" s="315"/>
+      <c r="F11" s="315"/>
+      <c r="G11" s="315"/>
+      <c r="H11" s="315"/>
+      <c r="I11" s="315"/>
+      <c r="J11" s="315"/>
+      <c r="K11" s="315"/>
+      <c r="L11" s="315"/>
+      <c r="M11" s="315"/>
+      <c r="N11" s="315"/>
+      <c r="O11" s="315"/>
+      <c r="P11" s="315"/>
+      <c r="Q11" s="315"/>
+      <c r="R11" s="315"/>
+      <c r="S11" s="315"/>
+      <c r="T11" s="315"/>
+      <c r="U11" s="315"/>
+      <c r="V11" s="315"/>
+      <c r="W11" s="315"/>
+      <c r="X11" s="315"/>
+      <c r="Y11" s="315"/>
+      <c r="Z11" s="315"/>
+      <c r="AA11" s="315"/>
+      <c r="AB11" s="315"/>
+      <c r="AC11" s="315"/>
+      <c r="AD11" s="315"/>
+      <c r="AE11" s="316"/>
     </row>
     <row r="12" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A12" s="83"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="113"/>
-      <c r="AA12" s="113"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="113"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="114"/>
+      <c r="A12" s="314"/>
+      <c r="B12" s="315"/>
+      <c r="C12" s="315"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="315"/>
+      <c r="F12" s="315"/>
+      <c r="G12" s="315"/>
+      <c r="H12" s="315"/>
+      <c r="I12" s="315"/>
+      <c r="J12" s="315"/>
+      <c r="K12" s="315"/>
+      <c r="L12" s="315"/>
+      <c r="M12" s="315"/>
+      <c r="N12" s="315"/>
+      <c r="O12" s="315"/>
+      <c r="P12" s="315"/>
+      <c r="Q12" s="315"/>
+      <c r="R12" s="315"/>
+      <c r="S12" s="315"/>
+      <c r="T12" s="315"/>
+      <c r="U12" s="315"/>
+      <c r="V12" s="315"/>
+      <c r="W12" s="315"/>
+      <c r="X12" s="315"/>
+      <c r="Y12" s="315"/>
+      <c r="Z12" s="315"/>
+      <c r="AA12" s="315"/>
+      <c r="AB12" s="315"/>
+      <c r="AC12" s="315"/>
+      <c r="AD12" s="315"/>
+      <c r="AE12" s="316"/>
     </row>
     <row r="13" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="114"/>
+      <c r="A13" s="314"/>
+      <c r="B13" s="315"/>
+      <c r="C13" s="315"/>
+      <c r="D13" s="315"/>
+      <c r="E13" s="315"/>
+      <c r="F13" s="315"/>
+      <c r="G13" s="315"/>
+      <c r="H13" s="315"/>
+      <c r="I13" s="315"/>
+      <c r="J13" s="315"/>
+      <c r="K13" s="315"/>
+      <c r="L13" s="315"/>
+      <c r="M13" s="315"/>
+      <c r="N13" s="315"/>
+      <c r="O13" s="315"/>
+      <c r="P13" s="315"/>
+      <c r="Q13" s="315"/>
+      <c r="R13" s="315"/>
+      <c r="S13" s="315"/>
+      <c r="T13" s="315"/>
+      <c r="U13" s="315"/>
+      <c r="V13" s="315"/>
+      <c r="W13" s="315"/>
+      <c r="X13" s="315"/>
+      <c r="Y13" s="315"/>
+      <c r="Z13" s="315"/>
+      <c r="AA13" s="315"/>
+      <c r="AB13" s="315"/>
+      <c r="AC13" s="315"/>
+      <c r="AD13" s="315"/>
+      <c r="AE13" s="316"/>
     </row>
     <row r="14" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A14" s="83"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="113"/>
-      <c r="AE14" s="114"/>
+      <c r="A14" s="314"/>
+      <c r="B14" s="315"/>
+      <c r="C14" s="315"/>
+      <c r="D14" s="315"/>
+      <c r="E14" s="315"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="315"/>
+      <c r="H14" s="315"/>
+      <c r="I14" s="315"/>
+      <c r="J14" s="315"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
+      <c r="M14" s="315"/>
+      <c r="N14" s="315"/>
+      <c r="O14" s="315"/>
+      <c r="P14" s="315"/>
+      <c r="Q14" s="315"/>
+      <c r="R14" s="315"/>
+      <c r="S14" s="315"/>
+      <c r="T14" s="315"/>
+      <c r="U14" s="315"/>
+      <c r="V14" s="315"/>
+      <c r="W14" s="315"/>
+      <c r="X14" s="315"/>
+      <c r="Y14" s="315"/>
+      <c r="Z14" s="315"/>
+      <c r="AA14" s="315"/>
+      <c r="AB14" s="315"/>
+      <c r="AC14" s="315"/>
+      <c r="AD14" s="315"/>
+      <c r="AE14" s="316"/>
     </row>
     <row r="15" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A15" s="83"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="113"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="114"/>
+      <c r="A15" s="314"/>
+      <c r="B15" s="315"/>
+      <c r="C15" s="315"/>
+      <c r="D15" s="315"/>
+      <c r="E15" s="315"/>
+      <c r="F15" s="315"/>
+      <c r="G15" s="315"/>
+      <c r="H15" s="315"/>
+      <c r="I15" s="315"/>
+      <c r="J15" s="315"/>
+      <c r="K15" s="315"/>
+      <c r="L15" s="315"/>
+      <c r="M15" s="315"/>
+      <c r="N15" s="315"/>
+      <c r="O15" s="315"/>
+      <c r="P15" s="315"/>
+      <c r="Q15" s="315"/>
+      <c r="R15" s="315"/>
+      <c r="S15" s="315"/>
+      <c r="T15" s="315"/>
+      <c r="U15" s="315"/>
+      <c r="V15" s="315"/>
+      <c r="W15" s="315"/>
+      <c r="X15" s="315"/>
+      <c r="Y15" s="315"/>
+      <c r="Z15" s="315"/>
+      <c r="AA15" s="315"/>
+      <c r="AB15" s="315"/>
+      <c r="AC15" s="315"/>
+      <c r="AD15" s="315"/>
+      <c r="AE15" s="316"/>
     </row>
     <row r="16" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A16" s="83"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="113"/>
-      <c r="AC16" s="113"/>
-      <c r="AD16" s="113"/>
-      <c r="AE16" s="114"/>
+      <c r="A16" s="314"/>
+      <c r="B16" s="315"/>
+      <c r="C16" s="315"/>
+      <c r="D16" s="315"/>
+      <c r="E16" s="315"/>
+      <c r="F16" s="315"/>
+      <c r="G16" s="315"/>
+      <c r="H16" s="315"/>
+      <c r="I16" s="315"/>
+      <c r="J16" s="315"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="315"/>
+      <c r="M16" s="315"/>
+      <c r="N16" s="315"/>
+      <c r="O16" s="315"/>
+      <c r="P16" s="315"/>
+      <c r="Q16" s="315"/>
+      <c r="R16" s="315"/>
+      <c r="S16" s="315"/>
+      <c r="T16" s="315"/>
+      <c r="U16" s="315"/>
+      <c r="V16" s="315"/>
+      <c r="W16" s="315"/>
+      <c r="X16" s="315"/>
+      <c r="Y16" s="315"/>
+      <c r="Z16" s="315"/>
+      <c r="AA16" s="315"/>
+      <c r="AB16" s="315"/>
+      <c r="AC16" s="315"/>
+      <c r="AD16" s="315"/>
+      <c r="AE16" s="316"/>
     </row>
     <row r="17" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A17" s="83"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="113"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="114"/>
+      <c r="A17" s="314"/>
+      <c r="B17" s="315"/>
+      <c r="C17" s="315"/>
+      <c r="D17" s="315"/>
+      <c r="E17" s="315"/>
+      <c r="F17" s="315"/>
+      <c r="G17" s="315"/>
+      <c r="H17" s="315"/>
+      <c r="I17" s="315"/>
+      <c r="J17" s="315"/>
+      <c r="K17" s="315"/>
+      <c r="L17" s="315"/>
+      <c r="M17" s="315"/>
+      <c r="N17" s="315"/>
+      <c r="O17" s="315"/>
+      <c r="P17" s="315"/>
+      <c r="Q17" s="315"/>
+      <c r="R17" s="315"/>
+      <c r="S17" s="315"/>
+      <c r="T17" s="315"/>
+      <c r="U17" s="315"/>
+      <c r="V17" s="315"/>
+      <c r="W17" s="315"/>
+      <c r="X17" s="315"/>
+      <c r="Y17" s="315"/>
+      <c r="Z17" s="315"/>
+      <c r="AA17" s="315"/>
+      <c r="AB17" s="315"/>
+      <c r="AC17" s="315"/>
+      <c r="AD17" s="315"/>
+      <c r="AE17" s="316"/>
     </row>
     <row r="18" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A18" s="83"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="113"/>
-      <c r="AC18" s="113"/>
-      <c r="AD18" s="113"/>
-      <c r="AE18" s="114"/>
+      <c r="A18" s="314"/>
+      <c r="B18" s="315"/>
+      <c r="C18" s="315"/>
+      <c r="D18" s="315"/>
+      <c r="E18" s="315"/>
+      <c r="F18" s="315"/>
+      <c r="G18" s="315"/>
+      <c r="H18" s="315"/>
+      <c r="I18" s="315"/>
+      <c r="J18" s="315"/>
+      <c r="K18" s="315"/>
+      <c r="L18" s="315"/>
+      <c r="M18" s="315"/>
+      <c r="N18" s="315"/>
+      <c r="O18" s="315"/>
+      <c r="P18" s="315"/>
+      <c r="Q18" s="315"/>
+      <c r="R18" s="315"/>
+      <c r="S18" s="315"/>
+      <c r="T18" s="315"/>
+      <c r="U18" s="315"/>
+      <c r="V18" s="315"/>
+      <c r="W18" s="315"/>
+      <c r="X18" s="315"/>
+      <c r="Y18" s="315"/>
+      <c r="Z18" s="315"/>
+      <c r="AA18" s="315"/>
+      <c r="AB18" s="315"/>
+      <c r="AC18" s="315"/>
+      <c r="AD18" s="315"/>
+      <c r="AE18" s="316"/>
     </row>
     <row r="19" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="113"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="113"/>
-      <c r="AB19" s="113"/>
-      <c r="AC19" s="113"/>
-      <c r="AD19" s="113"/>
-      <c r="AE19" s="114"/>
+      <c r="A19" s="314"/>
+      <c r="B19" s="315"/>
+      <c r="C19" s="315"/>
+      <c r="D19" s="315"/>
+      <c r="E19" s="315"/>
+      <c r="F19" s="315"/>
+      <c r="G19" s="315"/>
+      <c r="H19" s="315"/>
+      <c r="I19" s="315"/>
+      <c r="J19" s="315"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="315"/>
+      <c r="M19" s="315"/>
+      <c r="N19" s="315"/>
+      <c r="O19" s="315"/>
+      <c r="P19" s="315"/>
+      <c r="Q19" s="315"/>
+      <c r="R19" s="315"/>
+      <c r="S19" s="315"/>
+      <c r="T19" s="315"/>
+      <c r="U19" s="315"/>
+      <c r="V19" s="315"/>
+      <c r="W19" s="315"/>
+      <c r="X19" s="315"/>
+      <c r="Y19" s="315"/>
+      <c r="Z19" s="315"/>
+      <c r="AA19" s="315"/>
+      <c r="AB19" s="315"/>
+      <c r="AC19" s="315"/>
+      <c r="AD19" s="315"/>
+      <c r="AE19" s="316"/>
     </row>
     <row r="20" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="113"/>
-      <c r="AD20" s="113"/>
-      <c r="AE20" s="114"/>
+      <c r="A20" s="314"/>
+      <c r="B20" s="315"/>
+      <c r="C20" s="315"/>
+      <c r="D20" s="315"/>
+      <c r="E20" s="315"/>
+      <c r="F20" s="315"/>
+      <c r="G20" s="315"/>
+      <c r="H20" s="315"/>
+      <c r="I20" s="315"/>
+      <c r="J20" s="315"/>
+      <c r="K20" s="315"/>
+      <c r="L20" s="315"/>
+      <c r="M20" s="315"/>
+      <c r="N20" s="315"/>
+      <c r="O20" s="315"/>
+      <c r="P20" s="315"/>
+      <c r="Q20" s="315"/>
+      <c r="R20" s="315"/>
+      <c r="S20" s="315"/>
+      <c r="T20" s="315"/>
+      <c r="U20" s="315"/>
+      <c r="V20" s="315"/>
+      <c r="W20" s="315"/>
+      <c r="X20" s="315"/>
+      <c r="Y20" s="315"/>
+      <c r="Z20" s="315"/>
+      <c r="AA20" s="315"/>
+      <c r="AB20" s="315"/>
+      <c r="AC20" s="315"/>
+      <c r="AD20" s="315"/>
+      <c r="AE20" s="316"/>
     </row>
     <row r="21" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="113"/>
-      <c r="AC21" s="113"/>
-      <c r="AD21" s="113"/>
-      <c r="AE21" s="114"/>
+      <c r="A21" s="314"/>
+      <c r="B21" s="315"/>
+      <c r="C21" s="315"/>
+      <c r="D21" s="315"/>
+      <c r="E21" s="315"/>
+      <c r="F21" s="315"/>
+      <c r="G21" s="315"/>
+      <c r="H21" s="315"/>
+      <c r="I21" s="315"/>
+      <c r="J21" s="315"/>
+      <c r="K21" s="315"/>
+      <c r="L21" s="315"/>
+      <c r="M21" s="315"/>
+      <c r="N21" s="315"/>
+      <c r="O21" s="315"/>
+      <c r="P21" s="315"/>
+      <c r="Q21" s="315"/>
+      <c r="R21" s="315"/>
+      <c r="S21" s="315"/>
+      <c r="T21" s="315"/>
+      <c r="U21" s="315"/>
+      <c r="V21" s="315"/>
+      <c r="W21" s="315"/>
+      <c r="X21" s="315"/>
+      <c r="Y21" s="315"/>
+      <c r="Z21" s="315"/>
+      <c r="AA21" s="315"/>
+      <c r="AB21" s="315"/>
+      <c r="AC21" s="315"/>
+      <c r="AD21" s="315"/>
+      <c r="AE21" s="316"/>
     </row>
     <row r="22" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="113"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="113"/>
-      <c r="AE22" s="114"/>
+      <c r="A22" s="314"/>
+      <c r="B22" s="315"/>
+      <c r="C22" s="315"/>
+      <c r="D22" s="315"/>
+      <c r="E22" s="315"/>
+      <c r="F22" s="315"/>
+      <c r="G22" s="315"/>
+      <c r="H22" s="315"/>
+      <c r="I22" s="315"/>
+      <c r="J22" s="315"/>
+      <c r="K22" s="315"/>
+      <c r="L22" s="315"/>
+      <c r="M22" s="315"/>
+      <c r="N22" s="315"/>
+      <c r="O22" s="315"/>
+      <c r="P22" s="315"/>
+      <c r="Q22" s="315"/>
+      <c r="R22" s="315"/>
+      <c r="S22" s="315"/>
+      <c r="T22" s="315"/>
+      <c r="U22" s="315"/>
+      <c r="V22" s="315"/>
+      <c r="W22" s="315"/>
+      <c r="X22" s="315"/>
+      <c r="Y22" s="315"/>
+      <c r="Z22" s="315"/>
+      <c r="AA22" s="315"/>
+      <c r="AB22" s="315"/>
+      <c r="AC22" s="315"/>
+      <c r="AD22" s="315"/>
+      <c r="AE22" s="316"/>
     </row>
     <row r="23" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A23" s="83"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="114"/>
+      <c r="A23" s="314"/>
+      <c r="B23" s="315"/>
+      <c r="C23" s="315"/>
+      <c r="D23" s="315"/>
+      <c r="E23" s="315"/>
+      <c r="F23" s="315"/>
+      <c r="G23" s="315"/>
+      <c r="H23" s="315"/>
+      <c r="I23" s="315"/>
+      <c r="J23" s="315"/>
+      <c r="K23" s="315"/>
+      <c r="L23" s="315"/>
+      <c r="M23" s="315"/>
+      <c r="N23" s="315"/>
+      <c r="O23" s="315"/>
+      <c r="P23" s="315"/>
+      <c r="Q23" s="315"/>
+      <c r="R23" s="315"/>
+      <c r="S23" s="315"/>
+      <c r="T23" s="315"/>
+      <c r="U23" s="315"/>
+      <c r="V23" s="315"/>
+      <c r="W23" s="315"/>
+      <c r="X23" s="315"/>
+      <c r="Y23" s="315"/>
+      <c r="Z23" s="315"/>
+      <c r="AA23" s="315"/>
+      <c r="AB23" s="315"/>
+      <c r="AC23" s="315"/>
+      <c r="AD23" s="315"/>
+      <c r="AE23" s="316"/>
     </row>
     <row r="24" spans="1:31" ht="21.75" customHeight="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="113"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="114"/>
+      <c r="A24" s="314"/>
+      <c r="B24" s="315"/>
+      <c r="C24" s="315"/>
+      <c r="D24" s="315"/>
+      <c r="E24" s="315"/>
+      <c r="F24" s="315"/>
+      <c r="G24" s="315"/>
+      <c r="H24" s="315"/>
+      <c r="I24" s="315"/>
+      <c r="J24" s="315"/>
+      <c r="K24" s="315"/>
+      <c r="L24" s="315"/>
+      <c r="M24" s="315"/>
+      <c r="N24" s="315"/>
+      <c r="O24" s="315"/>
+      <c r="P24" s="315"/>
+      <c r="Q24" s="315"/>
+      <c r="R24" s="315"/>
+      <c r="S24" s="315"/>
+      <c r="T24" s="315"/>
+      <c r="U24" s="315"/>
+      <c r="V24" s="315"/>
+      <c r="W24" s="315"/>
+      <c r="X24" s="315"/>
+      <c r="Y24" s="315"/>
+      <c r="Z24" s="315"/>
+      <c r="AA24" s="315"/>
+      <c r="AB24" s="315"/>
+      <c r="AC24" s="315"/>
+      <c r="AD24" s="315"/>
+      <c r="AE24" s="316"/>
     </row>
     <row r="25" spans="1:31" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A25" s="86"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="115"/>
-      <c r="T25" s="115"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="115"/>
-      <c r="Y25" s="115"/>
-      <c r="Z25" s="115"/>
-      <c r="AA25" s="115"/>
-      <c r="AB25" s="115"/>
-      <c r="AC25" s="115"/>
-      <c r="AD25" s="115"/>
-      <c r="AE25" s="116"/>
+      <c r="A25" s="317"/>
+      <c r="B25" s="318"/>
+      <c r="C25" s="318"/>
+      <c r="D25" s="318"/>
+      <c r="E25" s="318"/>
+      <c r="F25" s="318"/>
+      <c r="G25" s="318"/>
+      <c r="H25" s="318"/>
+      <c r="I25" s="318"/>
+      <c r="J25" s="318"/>
+      <c r="K25" s="318"/>
+      <c r="L25" s="318"/>
+      <c r="M25" s="318"/>
+      <c r="N25" s="318"/>
+      <c r="O25" s="318"/>
+      <c r="P25" s="318"/>
+      <c r="Q25" s="318"/>
+      <c r="R25" s="318"/>
+      <c r="S25" s="318"/>
+      <c r="T25" s="318"/>
+      <c r="U25" s="318"/>
+      <c r="V25" s="318"/>
+      <c r="W25" s="318"/>
+      <c r="X25" s="318"/>
+      <c r="Y25" s="318"/>
+      <c r="Z25" s="318"/>
+      <c r="AA25" s="318"/>
+      <c r="AB25" s="318"/>
+      <c r="AC25" s="318"/>
+      <c r="AD25" s="318"/>
+      <c r="AE25" s="319"/>
     </row>
     <row r="26" spans="1:31" ht="19.8" thickTop="1">
       <c r="A26" s="89"/>
@@ -54397,12 +54774,17 @@
       <c r="H35" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="U5:U8"/>
-    <mergeCell ref="AD4:AD8"/>
-    <mergeCell ref="AB4:AB8"/>
-    <mergeCell ref="AC4:AC8"/>
+  <mergeCells count="33">
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="S5:S8"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="Y5:Y8"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="W5:W8"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="D4:D8"/>
@@ -54418,18 +54800,14 @@
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="I5:I8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="U5:U8"/>
+    <mergeCell ref="AD4:AD8"/>
+    <mergeCell ref="AB4:AB8"/>
+    <mergeCell ref="AC4:AC8"/>
     <mergeCell ref="AA5:AA8"/>
     <mergeCell ref="Z5:Z8"/>
-    <mergeCell ref="T5:T8"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="R5:R8"/>
-    <mergeCell ref="Y5:Y8"/>
-    <mergeCell ref="V5:V8"/>
-    <mergeCell ref="X5:X8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="W5:W8"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="S5:S8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -54520,35 +54898,35 @@
     </row>
     <row r="3" spans="1:31" ht="6" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:31" ht="18" customHeight="1" thickTop="1">
-      <c r="A4" s="246" t="s">
+      <c r="A4" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="246" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="249" t="s">
+      <c r="C4" s="246" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="228" t="s">
+      <c r="D4" s="234" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="241"/>
-      <c r="K4" s="241"/>
-      <c r="L4" s="241"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="241"/>
-      <c r="O4" s="241"/>
-      <c r="P4" s="241"/>
-      <c r="Q4" s="241"/>
-      <c r="R4" s="241"/>
-      <c r="S4" s="242"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="253"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="253"/>
+      <c r="K4" s="253"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="253"/>
+      <c r="N4" s="253"/>
+      <c r="O4" s="253"/>
+      <c r="P4" s="253"/>
+      <c r="Q4" s="253"/>
+      <c r="R4" s="253"/>
+      <c r="S4" s="254"/>
       <c r="T4" s="59" t="s">
         <v>70</v>
       </c>
@@ -54561,192 +54939,192 @@
       <c r="Y4" s="59"/>
       <c r="Z4" s="59"/>
       <c r="AA4" s="59"/>
-      <c r="AB4" s="228" t="s">
+      <c r="AB4" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="AC4" s="228" t="s">
+      <c r="AC4" s="234" t="s">
         <v>220</v>
       </c>
-      <c r="AD4" s="228" t="s">
+      <c r="AD4" s="234" t="s">
         <v>74</v>
       </c>
-      <c r="AE4" s="252" t="s">
+      <c r="AE4" s="240" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1">
-      <c r="A5" s="247"/>
-      <c r="B5" s="250"/>
-      <c r="C5" s="250"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="222" t="s">
+      <c r="A5" s="244"/>
+      <c r="B5" s="247"/>
+      <c r="C5" s="247"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="222" t="s">
+      <c r="F5" s="228" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="222" t="s">
+      <c r="G5" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="222" t="s">
+      <c r="H5" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="222" t="s">
+      <c r="I5" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="222" t="s">
+      <c r="J5" s="228" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="222" t="s">
+      <c r="K5" s="228" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="222" t="s">
+      <c r="L5" s="228" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="222" t="s">
+      <c r="M5" s="228" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="222" t="s">
+      <c r="N5" s="228" t="s">
         <v>93</v>
       </c>
-      <c r="O5" s="222" t="s">
+      <c r="O5" s="228" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="222" t="s">
+      <c r="P5" s="228" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" s="222" t="s">
+      <c r="Q5" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="222" t="s">
+      <c r="R5" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="S5" s="222"/>
-      <c r="T5" s="229" t="s">
+      <c r="S5" s="228"/>
+      <c r="T5" s="235" t="s">
         <v>134</v>
       </c>
-      <c r="U5" s="229" t="s">
+      <c r="U5" s="235" t="s">
         <v>98</v>
       </c>
-      <c r="V5" s="229" t="s">
+      <c r="V5" s="235" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="229" t="s">
+      <c r="W5" s="235" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="229" t="s">
+      <c r="X5" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="Y5" s="229" t="s">
+      <c r="Y5" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="Z5" s="229" t="s">
+      <c r="Z5" s="235" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="229"/>
-      <c r="AB5" s="229"/>
-      <c r="AC5" s="229"/>
-      <c r="AD5" s="229"/>
-      <c r="AE5" s="253"/>
+      <c r="AA5" s="235"/>
+      <c r="AB5" s="235"/>
+      <c r="AC5" s="235"/>
+      <c r="AD5" s="235"/>
+      <c r="AE5" s="241"/>
     </row>
     <row r="6" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A6" s="247"/>
-      <c r="B6" s="250"/>
-      <c r="C6" s="250"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="223"/>
-      <c r="P6" s="223"/>
-      <c r="Q6" s="223"/>
-      <c r="R6" s="223"/>
-      <c r="S6" s="223"/>
-      <c r="T6" s="229"/>
-      <c r="U6" s="229"/>
-      <c r="V6" s="229"/>
-      <c r="W6" s="229"/>
-      <c r="X6" s="229"/>
-      <c r="Y6" s="229"/>
-      <c r="Z6" s="229"/>
-      <c r="AA6" s="229"/>
-      <c r="AB6" s="229"/>
-      <c r="AC6" s="229"/>
-      <c r="AD6" s="229"/>
-      <c r="AE6" s="253"/>
+      <c r="A6" s="244"/>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="235"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="229"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="229"/>
+      <c r="M6" s="229"/>
+      <c r="N6" s="229"/>
+      <c r="O6" s="229"/>
+      <c r="P6" s="229"/>
+      <c r="Q6" s="229"/>
+      <c r="R6" s="229"/>
+      <c r="S6" s="229"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="235"/>
+      <c r="W6" s="235"/>
+      <c r="X6" s="235"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="235"/>
+      <c r="AA6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="235"/>
+      <c r="AD6" s="235"/>
+      <c r="AE6" s="241"/>
     </row>
     <row r="7" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A7" s="247"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="223"/>
-      <c r="S7" s="223"/>
-      <c r="T7" s="229"/>
-      <c r="U7" s="229"/>
-      <c r="V7" s="229"/>
-      <c r="W7" s="229"/>
-      <c r="X7" s="229"/>
-      <c r="Y7" s="229"/>
-      <c r="Z7" s="229"/>
-      <c r="AA7" s="229"/>
-      <c r="AB7" s="229"/>
-      <c r="AC7" s="229"/>
-      <c r="AD7" s="229"/>
-      <c r="AE7" s="253"/>
+      <c r="A7" s="244"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="229"/>
+      <c r="R7" s="229"/>
+      <c r="S7" s="229"/>
+      <c r="T7" s="235"/>
+      <c r="U7" s="235"/>
+      <c r="V7" s="235"/>
+      <c r="W7" s="235"/>
+      <c r="X7" s="235"/>
+      <c r="Y7" s="235"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="235"/>
+      <c r="AB7" s="235"/>
+      <c r="AC7" s="235"/>
+      <c r="AD7" s="235"/>
+      <c r="AE7" s="241"/>
     </row>
     <row r="8" spans="1:31" ht="60.75" customHeight="1">
-      <c r="A8" s="248"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="224"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="229"/>
-      <c r="U8" s="229"/>
-      <c r="V8" s="229"/>
-      <c r="W8" s="229"/>
-      <c r="X8" s="229"/>
-      <c r="Y8" s="229"/>
-      <c r="Z8" s="229"/>
-      <c r="AA8" s="229"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="230"/>
-      <c r="AD8" s="230"/>
-      <c r="AE8" s="254"/>
+      <c r="A8" s="245"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="230"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="230"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="230"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="235"/>
+      <c r="W8" s="235"/>
+      <c r="X8" s="235"/>
+      <c r="Y8" s="235"/>
+      <c r="Z8" s="235"/>
+      <c r="AA8" s="235"/>
+      <c r="AB8" s="236"/>
+      <c r="AC8" s="236"/>
+      <c r="AD8" s="236"/>
+      <c r="AE8" s="242"/>
     </row>
     <row r="9" spans="1:31" ht="21.75" customHeight="1">
       <c r="A9" s="80"/>
@@ -55553,11 +55931,15 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AE4:AE8"/>
-    <mergeCell ref="U5:U8"/>
-    <mergeCell ref="AD4:AD8"/>
-    <mergeCell ref="AB4:AB8"/>
-    <mergeCell ref="AC4:AC8"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="S5:S8"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="Y5:Y8"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="W5:W8"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="D4:D8"/>
@@ -55573,18 +55955,14 @@
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="I5:I8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="AE4:AE8"/>
+    <mergeCell ref="U5:U8"/>
+    <mergeCell ref="AD4:AD8"/>
+    <mergeCell ref="AB4:AB8"/>
+    <mergeCell ref="AC4:AC8"/>
     <mergeCell ref="AA5:AA8"/>
     <mergeCell ref="Z5:Z8"/>
-    <mergeCell ref="T5:T8"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="R5:R8"/>
-    <mergeCell ref="Y5:Y8"/>
-    <mergeCell ref="V5:V8"/>
-    <mergeCell ref="X5:X8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="W5:W8"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="S5:S8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -55651,25 +56029,25 @@
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:22" ht="18" customHeight="1" thickTop="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="209" t="s">
+      <c r="D4" s="212" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="217" t="s">
+      <c r="E4" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="219"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="215"/>
       <c r="J4" s="58" t="s">
         <v>70</v>
       </c>
@@ -55682,126 +56060,126 @@
       <c r="O4" s="104"/>
       <c r="P4" s="104"/>
       <c r="Q4" s="104"/>
-      <c r="R4" s="209" t="s">
+      <c r="R4" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="209" t="s">
+      <c r="S4" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="209" t="s">
+      <c r="T4" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="U4" s="206" t="s">
+      <c r="U4" s="216" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1">
-      <c r="A5" s="212"/>
-      <c r="B5" s="201"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="214" t="s">
+      <c r="A5" s="205"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="214" t="s">
+      <c r="F5" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="199" t="s">
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="207" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="199" t="s">
+      <c r="K5" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199" t="s">
+      <c r="L5" s="207"/>
+      <c r="M5" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="199" t="s">
+      <c r="N5" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="199" t="s">
+      <c r="O5" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="199"/>
-      <c r="R5" s="199"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="199"/>
-      <c r="U5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="217"/>
     </row>
     <row r="6" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A6" s="212"/>
-      <c r="B6" s="201"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="199"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199"/>
-      <c r="O6" s="199"/>
-      <c r="P6" s="199"/>
-      <c r="Q6" s="199"/>
-      <c r="R6" s="199"/>
-      <c r="S6" s="199"/>
-      <c r="T6" s="199"/>
-      <c r="U6" s="207"/>
+      <c r="A6" s="205"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="217"/>
     </row>
     <row r="7" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A7" s="212"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="199"/>
-      <c r="R7" s="199"/>
-      <c r="S7" s="199"/>
-      <c r="T7" s="199"/>
-      <c r="U7" s="207"/>
+      <c r="A7" s="205"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="207"/>
+      <c r="R7" s="207"/>
+      <c r="S7" s="207"/>
+      <c r="T7" s="207"/>
+      <c r="U7" s="217"/>
     </row>
     <row r="8" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A8" s="213"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="210" t="s">
+      <c r="A8" s="206"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="211" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="199"/>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="199"/>
-      <c r="Q8" s="199"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="208"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="207"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="207"/>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="211"/>
+      <c r="S8" s="211"/>
+      <c r="T8" s="211"/>
+      <c r="U8" s="218"/>
     </row>
     <row r="9" spans="1:22" ht="21" customHeight="1">
       <c r="A9" s="105"/>
@@ -56243,19 +56621,6 @@
     <row r="28" spans="1:21" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="M5:M8"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="G5:G8"/>
@@ -56265,6 +56630,19 @@
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:I4"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="T4:T8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -56277,7 +56655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:U28"/>
     </sheetView>
   </sheetViews>
@@ -56331,25 +56709,25 @@
     </row>
     <row r="3" spans="1:22" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:22" ht="18" customHeight="1" thickTop="1">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="209" t="s">
+      <c r="D4" s="212" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="217" t="s">
+      <c r="E4" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="219"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="215"/>
       <c r="J4" s="58" t="s">
         <v>70</v>
       </c>
@@ -56362,126 +56740,126 @@
       <c r="O4" s="104"/>
       <c r="P4" s="104"/>
       <c r="Q4" s="104"/>
-      <c r="R4" s="209" t="s">
+      <c r="R4" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="209" t="s">
+      <c r="S4" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="209" t="s">
+      <c r="T4" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="U4" s="206" t="s">
+      <c r="U4" s="216" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1">
-      <c r="A5" s="212"/>
-      <c r="B5" s="201"/>
-      <c r="C5" s="204"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="214" t="s">
+      <c r="A5" s="205"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="214" t="s">
+      <c r="F5" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="199" t="s">
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="207" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="199" t="s">
+      <c r="K5" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="199"/>
-      <c r="M5" s="199" t="s">
+      <c r="L5" s="207"/>
+      <c r="M5" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="199" t="s">
+      <c r="N5" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="O5" s="199" t="s">
+      <c r="O5" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="199"/>
-      <c r="R5" s="199"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="199"/>
-      <c r="U5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="217"/>
     </row>
     <row r="6" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A6" s="212"/>
-      <c r="B6" s="201"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="199"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199"/>
-      <c r="O6" s="199"/>
-      <c r="P6" s="199"/>
-      <c r="Q6" s="199"/>
-      <c r="R6" s="199"/>
-      <c r="S6" s="199"/>
-      <c r="T6" s="199"/>
-      <c r="U6" s="207"/>
+      <c r="A6" s="205"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="217"/>
     </row>
     <row r="7" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A7" s="212"/>
-      <c r="B7" s="201"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="199"/>
-      <c r="R7" s="199"/>
-      <c r="S7" s="199"/>
-      <c r="T7" s="199"/>
-      <c r="U7" s="207"/>
+      <c r="A7" s="205"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="207"/>
+      <c r="R7" s="207"/>
+      <c r="S7" s="207"/>
+      <c r="T7" s="207"/>
+      <c r="U7" s="217"/>
     </row>
     <row r="8" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A8" s="213"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="210" t="s">
+      <c r="A8" s="206"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="211" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="199"/>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="199"/>
-      <c r="Q8" s="199"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="208"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="207"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="207"/>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="211"/>
+      <c r="S8" s="211"/>
+      <c r="T8" s="211"/>
+      <c r="U8" s="218"/>
     </row>
     <row r="9" spans="1:22" ht="21" customHeight="1">
       <c r="A9" s="105"/>
@@ -56923,19 +57301,6 @@
     <row r="28" spans="1:21" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="U4:U8"/>
-    <mergeCell ref="P5:P8"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="T4:T8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="M5:M8"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="G5:G8"/>
@@ -56945,6 +57310,19 @@
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:I4"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="U4:U8"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="T4:T8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
